--- a/IOUsing/data/Journal401.xlsx
+++ b/IOUsing/data/Journal401.xlsx
@@ -10,12 +10,12 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9665C7-CCA5-4467-9023-2C38109CC4A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11250" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11250" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Schedule" sheetId="2" r:id="rId2"/>
     <sheet name="Teachers" sheetId="4" r:id="rId3"/>
     <sheet name="CommonPoints" r:id="rId7" sheetId="5"/>
+    <sheet name="Schedule" r:id="rId8" sheetId="6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>Week day</t>
   </si>
@@ -382,213 +382,6 @@
 </a:theme>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF3EFCC8-F25E-4337-B30C-53A36178A1B1}">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0">
-        <f>B1+1</f>
-        <v>2</v>
-      </c>
-      <c r="D1" s="0">
-        <f t="shared" ref="D1:H1" si="0">C1 + 1</f>
-        <v>3</v>
-      </c>
-      <c r="E1" s="0">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="F1" s="0">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="G1" s="0">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="H1" s="0">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="B2" s="0">
-        <v>-1</v>
-      </c>
-      <c r="C2" s="0">
-        <v>1</v>
-      </c>
-      <c r="D2" s="0">
-        <v>-1</v>
-      </c>
-      <c r="E2" s="0">
-        <v>2</v>
-      </c>
-      <c r="F2" s="0">
-        <v>-1</v>
-      </c>
-      <c r="G2" s="0">
-        <v>1</v>
-      </c>
-      <c r="H2" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="0">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0">
-        <v>1</v>
-      </c>
-      <c r="C3" s="0">
-        <v>3</v>
-      </c>
-      <c r="D3" s="0">
-        <v>3</v>
-      </c>
-      <c r="E3" s="0">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0">
-        <v>-1</v>
-      </c>
-      <c r="G3" s="0">
-        <v>-1</v>
-      </c>
-      <c r="H3" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s" s="0">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="C4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="D4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="E4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="F4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="G4" s="0">
-        <v>-1</v>
-      </c>
-      <c r="H4" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0">
-        <v>-1</v>
-      </c>
-      <c r="C5" s="0">
-        <v>-1</v>
-      </c>
-      <c r="D5" s="0">
-        <v>-1</v>
-      </c>
-      <c r="E5" s="0">
-        <v>-1</v>
-      </c>
-      <c r="F5" s="0">
-        <v>2</v>
-      </c>
-      <c r="G5" s="0">
-        <v>4</v>
-      </c>
-      <c r="H5" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="C6" s="0">
-        <v>3</v>
-      </c>
-      <c r="D6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="E6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="F6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="G6" s="0">
-        <v>-1</v>
-      </c>
-      <c r="H6" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s" s="0">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0">
-        <v>-1</v>
-      </c>
-      <c r="C7" s="0">
-        <v>-1</v>
-      </c>
-      <c r="D7" s="0">
-        <v>-1</v>
-      </c>
-      <c r="E7" s="0">
-        <v>-1</v>
-      </c>
-      <c r="F7" s="0">
-        <v>-1</v>
-      </c>
-      <c r="G7" s="0">
-        <v>4</v>
-      </c>
-      <c r="H7" s="0">
-        <v>-1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4532CAC-BC7C-49FD-BBA4-5F40BDAE69F4}">
   <dimension ref="A1:B5"/>
@@ -807,7 +600,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n" s="0">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="B10" t="n" s="0">
         <v>0.0</v>
@@ -824,7 +617,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n" s="0">
-        <v>10.0</v>
+        <v>14.0</v>
       </c>
       <c r="B11" t="n" s="0">
         <v>0.0</v>
@@ -833,10 +626,205 @@
         <v>0.0</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>0.0</v>
+        <v>50.0</v>
       </c>
       <c r="E11" t="n" s="0">
         <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="F1" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="G1" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="H1" t="n" s="0">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H3" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H4" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="G5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="H5" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="H6" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>-1.0</v>
+      </c>
+      <c r="G7" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="H7" t="n" s="0">
+        <v>4.0</v>
       </c>
     </row>
   </sheetData>

--- a/IOUsing/data/Journal401.xlsx
+++ b/IOUsing/data/Journal401.xlsx
@@ -14,8 +14,8 @@
   </bookViews>
   <sheets>
     <sheet name="Teachers" sheetId="4" r:id="rId3"/>
-    <sheet name="CommonPoints" r:id="rId7" sheetId="5"/>
     <sheet name="Schedule" r:id="rId8" sheetId="6"/>
+    <sheet name="CommonPoints" r:id="rId7" sheetId="7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
   <si>
     <t>Week day</t>
   </si>
@@ -437,206 +437,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="B1" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="B2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E2" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="B3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E3" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="B4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="B5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n" s="0">
-        <v>5.0</v>
-      </c>
-      <c r="B6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E6" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n" s="0">
-        <v>6.0</v>
-      </c>
-      <c r="B7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E7" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="B8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n" s="0">
-        <v>8.0</v>
-      </c>
-      <c r="B9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E9" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="B10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="E10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n" s="0">
-        <v>14.0</v>
-      </c>
-      <c r="B11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="C11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D11" t="n" s="0">
-        <v>50.0</v>
-      </c>
-      <c r="E11" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H7"/>
@@ -830,4 +630,187 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B1" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="C1" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D1" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="E1" t="n" s="0">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="B2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E2" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E3" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E6" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E7" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E9" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="D10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="E10" t="n" s="0">
+        <v>0.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>